--- a/raw_data/20200818_saline/20200818_Sensor3_Test_40.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_40.xlsx
@@ -1,2926 +1,3342 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7D093C-6E49-478B-A58D-96F801958F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>35654.716901</v>
       </c>
       <c r="B2" s="1">
-        <v>9.904088</v>
+        <v>9.9040879999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>1153.640000</v>
+        <v>1153.6400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.362000</v>
+        <v>-261.36200000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>35665.134338</v>
+        <v>35665.134338000003</v>
       </c>
       <c r="G2" s="1">
-        <v>9.906982</v>
+        <v>9.9069819999999993</v>
       </c>
       <c r="H2" s="1">
-        <v>1175.720000</v>
+        <v>1175.72</v>
       </c>
       <c r="I2" s="1">
-        <v>-219.301000</v>
+        <v>-219.30099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>35675.214566</v>
+        <v>35675.214566000002</v>
       </c>
       <c r="L2" s="1">
-        <v>9.909782</v>
+        <v>9.9097819999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="N2" s="1">
-        <v>-152.240000</v>
+        <v>-152.24</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>35685.397897</v>
+        <v>35685.397897000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.912611</v>
+        <v>9.9126110000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.859000</v>
+        <v>-129.85900000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>35696.286571</v>
+        <v>35696.286570999997</v>
       </c>
       <c r="V2" s="1">
         <v>9.915635</v>
       </c>
       <c r="W2" s="1">
-        <v>1218.600000</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.527000</v>
+        <v>-108.527</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>35706.731324</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.918536</v>
+        <v>9.9185359999999996</v>
       </c>
       <c r="AB2" s="1">
-        <v>1226.100000</v>
+        <v>1226.0999999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.876600</v>
+        <v>-90.876599999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>35717.019870</v>
+        <v>35717.019869999996</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.921394</v>
+        <v>9.9213939999999994</v>
       </c>
       <c r="AG2" s="1">
-        <v>1230.650000</v>
+        <v>1230.6500000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.373000</v>
+        <v>-86.373000000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>35727.436320</v>
+        <v>35727.436320000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.924288</v>
+        <v>9.9242880000000007</v>
       </c>
       <c r="AL2" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.838100</v>
+        <v>-89.838099999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>35737.645474</v>
+        <v>35737.645473999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.927124</v>
+        <v>9.9271239999999992</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.814000</v>
+        <v>-101.81399999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>35748.695349</v>
+        <v>35748.695349000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.930193</v>
+        <v>9.9301929999999992</v>
       </c>
       <c r="AV2" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.292000</v>
+        <v>-121.292</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>35759.846314</v>
+        <v>35759.846314000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.933291</v>
+        <v>9.9332910000000005</v>
       </c>
       <c r="BA2" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.937000</v>
+        <v>-138.93700000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>35771.461824</v>
+        <v>35771.461823999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.936517</v>
+        <v>9.9365170000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1303.390000</v>
+        <v>1303.3900000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.009000</v>
+        <v>-222.00899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>35782.144118</v>
+        <v>35782.144117999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.939484</v>
+        <v>9.9394840000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.870000</v>
+        <v>1372.87</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.810000</v>
+        <v>-360.81</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>35793.209994</v>
+        <v>35793.209993999997</v>
       </c>
       <c r="BO2" s="1">
         <v>9.942558</v>
       </c>
       <c r="BP2" s="1">
-        <v>1487.530000</v>
+        <v>1487.53</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-587.518000</v>
+        <v>-587.51800000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>35804.359371</v>
+        <v>35804.359370999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.945655</v>
+        <v>9.9456550000000004</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.420000</v>
+        <v>1620.42</v>
       </c>
       <c r="BV2" s="1">
-        <v>-844.475000</v>
+        <v>-844.47500000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>35815.054110</v>
+        <v>35815.054109999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.948626</v>
+        <v>9.9486260000000009</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1773.710000</v>
+        <v>1773.71</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1123.450000</v>
+        <v>-1123.45</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>35826.719553</v>
+        <v>35826.719553000003</v>
       </c>
       <c r="CD2" s="1">
         <v>9.951867</v>
       </c>
       <c r="CE2" s="1">
-        <v>2198.040000</v>
+        <v>2198.04</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1803.700000</v>
+        <v>-1803.7</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>35655.076992</v>
+        <v>35655.076992000002</v>
       </c>
       <c r="B3" s="1">
-        <v>9.904188</v>
+        <v>9.9041879999999995</v>
       </c>
       <c r="C3" s="1">
-        <v>1153.590000</v>
+        <v>1153.5899999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.399000</v>
+        <v>-261.399</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>35665.480546</v>
+        <v>35665.480545999999</v>
       </c>
       <c r="G3" s="1">
-        <v>9.907078</v>
+        <v>9.9070780000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>1174.620000</v>
+        <v>1174.6199999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.819000</v>
+        <v>-219.81899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>35675.597445</v>
+        <v>35675.597444999999</v>
       </c>
       <c r="L3" s="1">
-        <v>9.909888</v>
+        <v>9.9098880000000005</v>
       </c>
       <c r="M3" s="1">
-        <v>1203.370000</v>
+        <v>1203.3699999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.320000</v>
+        <v>-152.32</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>35685.805148</v>
+        <v>35685.805147999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.912724</v>
+        <v>9.9127240000000008</v>
       </c>
       <c r="R3" s="1">
-        <v>1211.390000</v>
+        <v>1211.3900000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.861000</v>
+        <v>-129.86099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>35696.693289</v>
+        <v>35696.693289000003</v>
       </c>
       <c r="V3" s="1">
-        <v>9.915748</v>
+        <v>9.9157480000000007</v>
       </c>
       <c r="W3" s="1">
-        <v>1218.530000</v>
+        <v>1218.53</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.619000</v>
+        <v>-108.619</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>35706.840971</v>
+        <v>35706.840970999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.918567</v>
+        <v>9.9185669999999995</v>
       </c>
       <c r="AB3" s="1">
-        <v>1225.990000</v>
+        <v>1225.99</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.017100</v>
+        <v>-91.017099999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>35717.378445</v>
+        <v>35717.378445000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.921494</v>
+        <v>9.9214939999999991</v>
       </c>
       <c r="AG3" s="1">
-        <v>1230.670000</v>
+        <v>1230.67</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.343100</v>
+        <v>-86.343100000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>35727.810834</v>
+        <v>35727.810834000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.924392</v>
+        <v>9.9243919999999992</v>
       </c>
       <c r="AL3" s="1">
-        <v>1237.480000</v>
+        <v>1237.48</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.770700</v>
+        <v>-89.770700000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>35738.048234</v>
+        <v>35738.048234000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.927236</v>
+        <v>9.9272360000000006</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.830000</v>
+        <v>-101.83</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>35749.453272</v>
+        <v>35749.453271999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.930404</v>
+        <v>9.9304039999999993</v>
       </c>
       <c r="AV3" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.280000</v>
+        <v>-121.28</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>35760.586934</v>
+        <v>35760.586933999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.933496</v>
+        <v>9.9334959999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1263.590000</v>
+        <v>1263.5899999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.941000</v>
+        <v>-138.941</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>35771.855047</v>
+        <v>35771.855046999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.936626</v>
+        <v>9.9366260000000004</v>
       </c>
       <c r="BF3" s="1">
-        <v>1303.390000</v>
+        <v>1303.3900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.001000</v>
+        <v>-222.001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>35782.523496</v>
+        <v>35782.523496000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.939590</v>
+        <v>9.9395900000000008</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.840000</v>
+        <v>1372.84</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.824000</v>
+        <v>-360.82400000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>35793.633924</v>
+        <v>35793.633924000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.942676</v>
+        <v>9.9426760000000005</v>
       </c>
       <c r="BP3" s="1">
-        <v>1487.580000</v>
+        <v>1487.58</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-587.520000</v>
+        <v>-587.52</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>35805.115308</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.945865</v>
+        <v>9.9458649999999995</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.360000</v>
+        <v>1620.36</v>
       </c>
       <c r="BV3" s="1">
-        <v>-844.587000</v>
+        <v>-844.58699999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>35815.897843</v>
+        <v>35815.897842999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.948861</v>
+        <v>9.9488610000000008</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1773.740000</v>
+        <v>1773.74</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1123.400000</v>
+        <v>-1123.4000000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>35826.985373</v>
+        <v>35826.985373000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.951940</v>
+        <v>9.9519400000000005</v>
       </c>
       <c r="CE3" s="1">
-        <v>2198.240000</v>
+        <v>2198.2399999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1803.530000</v>
+        <v>-1803.53</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>35655.417247</v>
+        <v>35655.417246999998</v>
       </c>
       <c r="B4" s="1">
-        <v>9.904283</v>
+        <v>9.9042829999999995</v>
       </c>
       <c r="C4" s="1">
-        <v>1153.360000</v>
+        <v>1153.3599999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.514000</v>
+        <v>-261.51400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>35665.895732</v>
+        <v>35665.895731999997</v>
       </c>
       <c r="G4" s="1">
-        <v>9.907193</v>
+        <v>9.9071929999999995</v>
       </c>
       <c r="H4" s="1">
-        <v>1175.670000</v>
+        <v>1175.67</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.462000</v>
+        <v>-219.46199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>35676.029956</v>
+        <v>35676.029955999998</v>
       </c>
       <c r="L4" s="1">
-        <v>9.910008</v>
+        <v>9.9100079999999995</v>
       </c>
       <c r="M4" s="1">
-        <v>1202.970000</v>
+        <v>1202.97</v>
       </c>
       <c r="N4" s="1">
-        <v>-152.162000</v>
+        <v>-152.16200000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>35686.134455</v>
+        <v>35686.134454999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.912815</v>
+        <v>9.9128150000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1211.410000</v>
+        <v>1211.4100000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.884000</v>
+        <v>-129.88399999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>35697.035101</v>
+        <v>35697.035101000001</v>
       </c>
       <c r="V4" s="1">
-        <v>9.915843</v>
+        <v>9.9158430000000006</v>
       </c>
       <c r="W4" s="1">
-        <v>1218.700000</v>
+        <v>1218.7</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.554000</v>
+        <v>-108.554</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>35707.180217</v>
+        <v>35707.180217000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.918661</v>
+        <v>9.9186610000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1226.020000</v>
+        <v>1226.02</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.933900</v>
+        <v>-90.933899999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>35717.723165</v>
+        <v>35717.723165000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.921590</v>
+        <v>9.9215900000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1230.680000</v>
+        <v>1230.68</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.345100</v>
+        <v>-86.345100000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>35728.148093</v>
+        <v>35728.148093000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.924486</v>
+        <v>9.9244859999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1237.510000</v>
+        <v>1237.51</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.862500</v>
+        <v>-89.862499999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>35738.768417</v>
+        <v>35738.768416999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.927436</v>
+        <v>9.9274360000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.866000</v>
+        <v>-101.866</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>35749.819319</v>
+        <v>35749.819319000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.930505</v>
+        <v>9.9305050000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1255.210000</v>
+        <v>1255.21</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.274000</v>
+        <v>-121.274</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>35760.946235</v>
+        <v>35760.946235000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.933596</v>
+        <v>9.9335959999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.914000</v>
+        <v>-138.91399999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>35772.220102</v>
+        <v>35772.220101999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.936728</v>
+        <v>9.9367280000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1303.380000</v>
+        <v>1303.3800000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.024000</v>
+        <v>-222.024</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>35783.209495</v>
+        <v>35783.209495000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.939780</v>
+        <v>9.9397800000000007</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.789000</v>
+        <v>-360.78899999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>35794.383335</v>
+        <v>35794.383334999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.942884</v>
+        <v>9.9428839999999994</v>
       </c>
       <c r="BP4" s="1">
-        <v>1487.610000</v>
+        <v>1487.61</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-587.528000</v>
+        <v>-587.52800000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>35805.236830</v>
+        <v>35805.236830000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.945899</v>
+        <v>9.9458990000000007</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.320000</v>
+        <v>1620.32</v>
       </c>
       <c r="BV4" s="1">
-        <v>-844.534000</v>
+        <v>-844.53399999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>35816.424068</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.949007</v>
+        <v>9.9490069999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1773.750000</v>
+        <v>1773.75</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1123.500000</v>
+        <v>-1123.5</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>35827.504220</v>
+        <v>35827.504220000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.952085</v>
+        <v>9.9520850000000003</v>
       </c>
       <c r="CE4" s="1">
-        <v>2196.550000</v>
+        <v>2196.5500000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1802.270000</v>
+        <v>-1802.27</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>35655.847744</v>
+        <v>35655.847743999999</v>
       </c>
       <c r="B5" s="1">
-        <v>9.904402</v>
+        <v>9.9044019999999993</v>
       </c>
       <c r="C5" s="1">
-        <v>1153.640000</v>
+        <v>1153.6400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-261.417000</v>
+        <v>-261.41699999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>35666.168499</v>
+        <v>35666.168498999999</v>
       </c>
       <c r="G5" s="1">
-        <v>9.907269</v>
+        <v>9.9072689999999994</v>
       </c>
       <c r="H5" s="1">
-        <v>1175.500000</v>
+        <v>1175.5</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.030000</v>
+        <v>-219.03</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>35676.320312</v>
+        <v>35676.320312000003</v>
       </c>
       <c r="L5" s="1">
-        <v>9.910089</v>
+        <v>9.9100889999999993</v>
       </c>
       <c r="M5" s="1">
-        <v>1203.240000</v>
+        <v>1203.24</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.227000</v>
+        <v>-152.227</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>35686.485127</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.912913</v>
+        <v>9.9129129999999996</v>
       </c>
       <c r="R5" s="1">
-        <v>1211.410000</v>
+        <v>1211.4100000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.886000</v>
+        <v>-129.886</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>35697.379289</v>
+        <v>35697.379288999997</v>
       </c>
       <c r="V5" s="1">
-        <v>9.915939</v>
+        <v>9.9159389999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>1218.600000</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.468000</v>
+        <v>-108.468</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>35707.532363</v>
+        <v>35707.532362999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.918759</v>
+        <v>9.9187589999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1226.020000</v>
+        <v>1226.02</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.888100</v>
+        <v>-90.888099999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>35718.406653</v>
+        <v>35718.406652999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.921780</v>
+        <v>9.92178</v>
       </c>
       <c r="AG5" s="1">
-        <v>1230.640000</v>
+        <v>1230.6400000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.362800</v>
+        <v>-86.362799999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>35728.852925</v>
+        <v>35728.852924999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.924681</v>
+        <v>9.9246809999999996</v>
       </c>
       <c r="AL5" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.854000</v>
+        <v>-89.853999999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>35739.155793</v>
+        <v>35739.155792999998</v>
       </c>
       <c r="AP5" s="1">
         <v>9.927543</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.853000</v>
+        <v>-101.85299999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>35750.185826</v>
+        <v>35750.185826000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.930607</v>
+        <v>9.9306070000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.261000</v>
+        <v>-121.261</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>35761.305635</v>
+        <v>35761.305634999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.933696</v>
+        <v>9.9336959999999994</v>
       </c>
       <c r="BA5" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.951000</v>
+        <v>-138.95099999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>35772.894662</v>
+        <v>35772.894661999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.936915</v>
+        <v>9.9369150000000008</v>
       </c>
       <c r="BF5" s="1">
-        <v>1303.390000</v>
+        <v>1303.3900000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.984000</v>
+        <v>-221.98400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>35783.648950</v>
+        <v>35783.648950000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>9.939902</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.900000</v>
+        <v>1372.9</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.845000</v>
+        <v>-360.84500000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>35794.875864</v>
+        <v>35794.875864000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.943021</v>
+        <v>9.9430209999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1487.570000</v>
+        <v>1487.57</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-587.520000</v>
+        <v>-587.52</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>35805.675438</v>
+        <v>35805.675437999998</v>
       </c>
       <c r="BT5" s="1">
         <v>9.946021</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.240000</v>
+        <v>1620.24</v>
       </c>
       <c r="BV5" s="1">
-        <v>-844.651000</v>
+        <v>-844.65099999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>35816.857068</v>
+        <v>35816.857067999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.949127</v>
+        <v>9.9491270000000007</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1773.760000</v>
+        <v>1773.76</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1123.520000</v>
+        <v>-1123.52</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>35828.018575</v>
+        <v>35828.018575000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.952227</v>
+        <v>9.9522270000000006</v>
       </c>
       <c r="CE5" s="1">
-        <v>2197.310000</v>
+        <v>2197.31</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1802.190000</v>
+        <v>-1802.19</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>35656.125999</v>
+        <v>35656.125999000004</v>
       </c>
       <c r="B6" s="1">
-        <v>9.904479</v>
+        <v>9.9044790000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>1153.590000</v>
+        <v>1153.5899999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.430000</v>
+        <v>-261.43</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>35666.511730</v>
+        <v>35666.511729999998</v>
       </c>
       <c r="G6" s="1">
-        <v>9.907364</v>
+        <v>9.9073639999999994</v>
       </c>
       <c r="H6" s="1">
-        <v>1175.730000</v>
+        <v>1175.73</v>
       </c>
       <c r="I6" s="1">
-        <v>-220.195000</v>
+        <v>-220.19499999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>35676.662851</v>
+        <v>35676.662851000001</v>
       </c>
       <c r="L6" s="1">
-        <v>9.910184</v>
+        <v>9.9101839999999992</v>
       </c>
       <c r="M6" s="1">
-        <v>1203.420000</v>
+        <v>1203.42</v>
       </c>
       <c r="N6" s="1">
-        <v>-152.388000</v>
+        <v>-152.38800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>35686.835854</v>
+        <v>35686.835853999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.913010</v>
+        <v>9.9130099999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.929000</v>
+        <v>-129.929</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>35698.066248</v>
+        <v>35698.066248000003</v>
       </c>
       <c r="V6" s="1">
-        <v>9.916130</v>
+        <v>9.9161300000000008</v>
       </c>
       <c r="W6" s="1">
-        <v>1218.510000</v>
+        <v>1218.51</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.404000</v>
+        <v>-108.404</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>35708.230233</v>
+        <v>35708.230233000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.918953</v>
+        <v>9.9189530000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1226.200000</v>
+        <v>1226.2</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.904900</v>
+        <v>-90.904899999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>35718.750914</v>
+        <v>35718.750913999997</v>
       </c>
       <c r="AF6" s="1">
         <v>9.921875</v>
       </c>
       <c r="AG6" s="1">
-        <v>1230.680000</v>
+        <v>1230.68</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.317300</v>
+        <v>-86.317300000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>35729.410901</v>
+        <v>35729.410901000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.924836</v>
+        <v>9.9248360000000009</v>
       </c>
       <c r="AL6" s="1">
-        <v>1237.500000</v>
+        <v>1237.5</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.806100</v>
+        <v>-89.806100000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>35739.536224</v>
+        <v>35739.536224000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.927649</v>
+        <v>9.9276490000000006</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.842000</v>
+        <v>-101.842</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>35750.860881</v>
+        <v>35750.860881000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.930795</v>
+        <v>9.9307949999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.271000</v>
+        <v>-121.271</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>35761.973748</v>
+        <v>35761.973747999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.933882</v>
+        <v>9.9338820000000005</v>
       </c>
       <c r="BA6" s="1">
-        <v>1263.620000</v>
+        <v>1263.6199999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.930000</v>
+        <v>-138.93</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>35773.302867</v>
+        <v>35773.302866999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.937029</v>
+        <v>9.9370290000000008</v>
       </c>
       <c r="BF6" s="1">
-        <v>1303.400000</v>
+        <v>1303.4000000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.999000</v>
+        <v>-221.999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>35784.028390</v>
+        <v>35784.028389999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.940008</v>
+        <v>9.9400080000000006</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.830000</v>
+        <v>1372.83</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.848000</v>
+        <v>-360.84800000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>35795.294022</v>
+        <v>35795.294022000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.943137</v>
+        <v>9.9431370000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1487.580000</v>
+        <v>1487.58</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-587.530000</v>
+        <v>-587.53</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>35806.088922</v>
+        <v>35806.088922000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.946136</v>
+        <v>9.9461359999999992</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.130000</v>
+        <v>1620.13</v>
       </c>
       <c r="BV6" s="1">
-        <v>-844.442000</v>
+        <v>-844.44200000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>35817.277177</v>
+        <v>35817.277177000004</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.949244</v>
+        <v>9.9492440000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1773.710000</v>
+        <v>1773.71</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1123.590000</v>
+        <v>-1123.5899999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>35828.575050</v>
+        <v>35828.575049999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.952382</v>
+        <v>9.9523820000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2198.640000</v>
+        <v>2198.64</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1803.180000</v>
+        <v>-1803.18</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>35656.462287</v>
+        <v>35656.462287000002</v>
       </c>
       <c r="B7" s="1">
-        <v>9.904573</v>
+        <v>9.9045729999999992</v>
       </c>
       <c r="C7" s="1">
-        <v>1153.840000</v>
+        <v>1153.8399999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.499000</v>
+        <v>-261.49900000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>35666.859425</v>
+        <v>35666.859425000002</v>
       </c>
       <c r="G7" s="1">
-        <v>9.907461</v>
+        <v>9.9074609999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>1175.200000</v>
+        <v>1175.2</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.317000</v>
+        <v>-219.31700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>35677.009090</v>
+        <v>35677.00909</v>
       </c>
       <c r="L7" s="1">
-        <v>9.910280</v>
+        <v>9.9102800000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="N7" s="1">
-        <v>-152.474000</v>
+        <v>-152.47399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>35687.528214</v>
+        <v>35687.528213999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.913202</v>
+        <v>9.9132020000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1211.250000</v>
+        <v>1211.25</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.880000</v>
+        <v>-129.88</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>35698.409975</v>
+        <v>35698.409975000002</v>
       </c>
       <c r="V7" s="1">
-        <v>9.916225</v>
+        <v>9.9162250000000007</v>
       </c>
       <c r="W7" s="1">
-        <v>1218.490000</v>
+        <v>1218.49</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.314000</v>
+        <v>-108.31399999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>35708.577465</v>
+        <v>35708.577465000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.919049</v>
+        <v>9.9190489999999993</v>
       </c>
       <c r="AB7" s="1">
-        <v>1226.050000</v>
+        <v>1226.05</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.884400</v>
+        <v>-90.884399999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>35719.096091</v>
+        <v>35719.096090999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.921971</v>
+        <v>9.9219709999999992</v>
       </c>
       <c r="AG7" s="1">
-        <v>1230.670000</v>
+        <v>1230.67</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.330200</v>
+        <v>-86.330200000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>35729.553247</v>
+        <v>35729.553247000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.924876</v>
+        <v>9.9248759999999994</v>
       </c>
       <c r="AL7" s="1">
-        <v>1237.490000</v>
+        <v>1237.49</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.884000</v>
+        <v>-89.884</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>35740.199903</v>
+        <v>35740.199903000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.927833</v>
+        <v>9.9278329999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.841000</v>
+        <v>-101.84099999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>35751.303808</v>
+        <v>35751.303807999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.930918</v>
+        <v>9.9309180000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.243000</v>
+        <v>-121.24299999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>35762.383453</v>
+        <v>35762.383453000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.933995</v>
+        <v>9.9339949999999995</v>
       </c>
       <c r="BA7" s="1">
-        <v>1263.590000</v>
+        <v>1263.5899999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.945000</v>
+        <v>-138.94499999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>35773.690276</v>
+        <v>35773.690276000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.937136</v>
+        <v>9.9371360000000006</v>
       </c>
       <c r="BF7" s="1">
-        <v>1303.390000</v>
+        <v>1303.3900000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.006000</v>
+        <v>-222.006</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>35784.399396</v>
+        <v>35784.399396000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.940111</v>
+        <v>9.9401109999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.870000</v>
+        <v>1372.87</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.833000</v>
+        <v>-360.83300000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>35795.690822</v>
+        <v>35795.690821999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.943247</v>
+        <v>9.9432469999999995</v>
       </c>
       <c r="BP7" s="1">
-        <v>1487.580000</v>
+        <v>1487.58</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-587.518000</v>
+        <v>-587.51800000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>35806.505592</v>
+        <v>35806.505592000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.946252</v>
+        <v>9.9462519999999994</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.000000</v>
+        <v>1620</v>
       </c>
       <c r="BV7" s="1">
-        <v>-844.564000</v>
+        <v>-844.56399999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>35817.698777</v>
+        <v>35817.698776999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.949361</v>
+        <v>9.9493609999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1773.680000</v>
+        <v>1773.68</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1123.600000</v>
+        <v>-1123.5999999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>35829.100345</v>
+        <v>35829.100344999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.952528</v>
+        <v>9.9525279999999992</v>
       </c>
       <c r="CE7" s="1">
-        <v>2196.720000</v>
+        <v>2196.7199999999998</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1801.730000</v>
+        <v>-1801.73</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>35656.806015</v>
+        <v>35656.806015000002</v>
       </c>
       <c r="B8" s="1">
-        <v>9.904668</v>
+        <v>9.9046679999999991</v>
       </c>
       <c r="C8" s="1">
-        <v>1153.600000</v>
+        <v>1153.5999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.445000</v>
+        <v>-261.44499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>35667.551839</v>
       </c>
       <c r="G8" s="1">
-        <v>9.907653</v>
+        <v>9.9076529999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1175.200000</v>
+        <v>1175.2</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.242000</v>
+        <v>-219.24199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>35677.711394</v>
+        <v>35677.711393999998</v>
       </c>
       <c r="L8" s="1">
-        <v>9.910475</v>
+        <v>9.9104749999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1203.310000</v>
+        <v>1203.31</v>
       </c>
       <c r="N8" s="1">
-        <v>-152.337000</v>
+        <v>-152.33699999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>35687.877892</v>
+        <v>35687.877891999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.913299</v>
+        <v>9.9132990000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.829000</v>
+        <v>-129.82900000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>35698.755656</v>
+        <v>35698.755656000001</v>
       </c>
       <c r="V8" s="1">
-        <v>9.916321</v>
+        <v>9.9163209999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1218.620000</v>
+        <v>1218.6199999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.229000</v>
+        <v>-108.229</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>35708.926122</v>
+        <v>35708.926121999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.919146</v>
+        <v>9.9191459999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>1226.000000</v>
+        <v>1226</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.962200</v>
+        <v>-90.962199999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>35719.746346</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.922152</v>
+        <v>9.9221520000000005</v>
       </c>
       <c r="AG8" s="1">
-        <v>1230.700000</v>
+        <v>1230.7</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.304100</v>
+        <v>-86.304100000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>35729.985757</v>
+        <v>35729.985757000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.924996</v>
+        <v>9.9249960000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.876900</v>
+        <v>-89.876900000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>35740.617039</v>
+        <v>35740.617038999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.927949</v>
+        <v>9.9279489999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.850000</v>
+        <v>-101.85</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>35751.670880</v>
+        <v>35751.670879999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.931020</v>
+        <v>9.9310200000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.270000</v>
+        <v>-121.27</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>35762.770323</v>
+        <v>35762.770322999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.934103</v>
+        <v>9.9341030000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>1263.580000</v>
+        <v>1263.58</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.920000</v>
+        <v>-138.91999999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>35774.049844</v>
+        <v>35774.049844000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.937236</v>
+        <v>9.9372360000000004</v>
       </c>
       <c r="BF8" s="1">
-        <v>1303.390000</v>
+        <v>1303.3900000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.971000</v>
+        <v>-221.971</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>35784.814549</v>
+        <v>35784.814549000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.940226</v>
+        <v>9.9402259999999991</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.833000</v>
+        <v>-360.83300000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>35796.113877</v>
+        <v>35796.113877000003</v>
       </c>
       <c r="BO8" s="1">
         <v>9.943365</v>
       </c>
       <c r="BP8" s="1">
-        <v>1487.520000</v>
+        <v>1487.52</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-587.548000</v>
+        <v>-587.548</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>35806.919223</v>
+        <v>35806.919222999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.946366</v>
+        <v>9.9463659999999994</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.940000</v>
+        <v>1619.94</v>
       </c>
       <c r="BV8" s="1">
-        <v>-844.518000</v>
+        <v>-844.51800000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>35818.126365</v>
+        <v>35818.126364999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.949480</v>
+        <v>9.9494799999999994</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1773.740000</v>
+        <v>1773.74</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1123.690000</v>
+        <v>-1123.69</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>35829.618169</v>
+        <v>35829.618169000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.952672</v>
+        <v>9.9526719999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>2196.260000</v>
+        <v>2196.2600000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1805.170000</v>
+        <v>-1805.17</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>35657.487517</v>
+        <v>35657.487517000001</v>
       </c>
       <c r="B9" s="1">
-        <v>9.904858</v>
+        <v>9.9048580000000008</v>
       </c>
       <c r="C9" s="1">
-        <v>1153.460000</v>
+        <v>1153.46</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.623000</v>
+        <v>-261.62299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>35667.896560</v>
+        <v>35667.896560000001</v>
       </c>
       <c r="G9" s="1">
-        <v>9.907749</v>
+        <v>9.9077490000000008</v>
       </c>
       <c r="H9" s="1">
-        <v>1175.600000</v>
+        <v>1175.5999999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.199000</v>
+        <v>-219.19900000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>35678.046725</v>
       </c>
       <c r="L9" s="1">
-        <v>9.910569</v>
+        <v>9.9105690000000006</v>
       </c>
       <c r="M9" s="1">
-        <v>1203.300000</v>
+        <v>1203.3</v>
       </c>
       <c r="N9" s="1">
-        <v>-152.581000</v>
+        <v>-152.58099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>35688.226084</v>
+        <v>35688.226084000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.913396</v>
+        <v>9.9133960000000005</v>
       </c>
       <c r="R9" s="1">
-        <v>1211.410000</v>
+        <v>1211.4100000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.890000</v>
+        <v>-129.88999999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>35699.411397</v>
+        <v>35699.411397000003</v>
       </c>
       <c r="V9" s="1">
-        <v>9.916503</v>
+        <v>9.9165030000000005</v>
       </c>
       <c r="W9" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.212000</v>
+        <v>-108.212</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>35709.575385</v>
+        <v>35709.575384999996</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.919326</v>
+        <v>9.9193259999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1226.250000</v>
+        <v>1226.25</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.926700</v>
+        <v>-90.926699999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>35720.128299</v>
+        <v>35720.128299000004</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.922258</v>
+        <v>9.9222579999999994</v>
       </c>
       <c r="AG9" s="1">
-        <v>1230.670000</v>
+        <v>1230.67</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.306300</v>
+        <v>-86.306299999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>35730.250620</v>
+        <v>35730.250619999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.925070</v>
+        <v>9.9250699999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.879200</v>
+        <v>-89.879199999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>35741.002399</v>
+        <v>35741.002398999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.928056</v>
+        <v>9.9280559999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.832000</v>
+        <v>-101.83199999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>35752.035903</v>
+        <v>35752.035903000004</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.931121</v>
+        <v>9.9311209999999992</v>
       </c>
       <c r="AV9" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.275000</v>
+        <v>-121.27500000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>35763.129921</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.934203</v>
+        <v>9.9342030000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1263.580000</v>
+        <v>1263.58</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.943000</v>
+        <v>-138.94300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>35774.475411</v>
+        <v>35774.475410999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.937354</v>
+        <v>9.9373539999999991</v>
       </c>
       <c r="BF9" s="1">
-        <v>1303.380000</v>
+        <v>1303.3800000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.975000</v>
+        <v>-221.97499999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>35785.174648</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.940326</v>
+        <v>9.9403260000000007</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.830000</v>
+        <v>-360.83</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>35796.497285</v>
+        <v>35796.497284999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.943471</v>
+        <v>9.9434710000000006</v>
       </c>
       <c r="BP9" s="1">
-        <v>1487.520000</v>
+        <v>1487.52</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-587.533000</v>
+        <v>-587.53300000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>35807.330903</v>
+        <v>35807.330903000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.946481</v>
+        <v>9.9464810000000003</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.880000</v>
+        <v>1619.88</v>
       </c>
       <c r="BV9" s="1">
-        <v>-844.394000</v>
+        <v>-844.39400000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>35818.540490</v>
+        <v>35818.540489999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.949595</v>
+        <v>9.9495950000000004</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1773.840000</v>
+        <v>1773.84</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1123.580000</v>
+        <v>-1123.58</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>35830.160265</v>
+        <v>35830.160264999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.952822</v>
+        <v>9.9528219999999994</v>
       </c>
       <c r="CE9" s="1">
-        <v>2197.880000</v>
+        <v>2197.88</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1803.010000</v>
+        <v>-1803.01</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>35657.831779</v>
       </c>
       <c r="B10" s="1">
-        <v>9.904953</v>
+        <v>9.9049530000000008</v>
       </c>
       <c r="C10" s="1">
-        <v>1153.590000</v>
+        <v>1153.5899999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.337000</v>
+        <v>-261.33699999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>35668.241278</v>
+        <v>35668.241278000001</v>
       </c>
       <c r="G10" s="1">
         <v>9.907845</v>
       </c>
       <c r="H10" s="1">
-        <v>1175.320000</v>
+        <v>1175.32</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.412000</v>
+        <v>-219.41200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>35678.702905</v>
+        <v>35678.702904999998</v>
       </c>
       <c r="L10" s="1">
-        <v>9.910751</v>
+        <v>9.9107509999999994</v>
       </c>
       <c r="M10" s="1">
-        <v>1203.590000</v>
+        <v>1203.5899999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-152.720000</v>
+        <v>-152.72</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>35688.878856</v>
+        <v>35688.878856000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.913577</v>
+        <v>9.9135770000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1211.380000</v>
+        <v>1211.3800000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.939000</v>
+        <v>-129.93899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>35699.784359</v>
+        <v>35699.784358999997</v>
       </c>
       <c r="V10" s="1">
-        <v>9.916607</v>
+        <v>9.9166070000000008</v>
       </c>
       <c r="W10" s="1">
-        <v>1218.710000</v>
+        <v>1218.71</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.199000</v>
+        <v>-108.199</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>35709.970232</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.919436</v>
+        <v>9.9194359999999993</v>
       </c>
       <c r="AB10" s="1">
-        <v>1226.010000</v>
+        <v>1226.01</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.808200</v>
+        <v>-90.808199999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>35720.471993</v>
+        <v>35720.471992999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.922353</v>
+        <v>9.9223529999999993</v>
       </c>
       <c r="AG10" s="1">
-        <v>1230.680000</v>
+        <v>1230.68</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.331000</v>
+        <v>-86.331000000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>35730.596829</v>
+        <v>35730.596829000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.925166</v>
+        <v>9.9251660000000008</v>
       </c>
       <c r="AL10" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.866300</v>
+        <v>-89.866299999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>35741.364696</v>
+        <v>35741.364695999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.928157</v>
+        <v>9.9281570000000006</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.846000</v>
+        <v>-101.846</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>35752.461473</v>
+        <v>35752.461473000003</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.931239</v>
+        <v>9.9312389999999997</v>
       </c>
       <c r="AV10" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.255000</v>
+        <v>-121.255</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>35763.722640</v>
+        <v>35763.72264</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.934367</v>
+        <v>9.9343669999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1263.560000</v>
+        <v>1263.56</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.921000</v>
+        <v>-138.92099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>35774.772545</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.937437</v>
+        <v>9.9374369999999992</v>
       </c>
       <c r="BF10" s="1">
-        <v>1303.400000</v>
+        <v>1303.4000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.995000</v>
+        <v>-221.995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>35785.547640</v>
+        <v>35785.547639999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.940430</v>
+        <v>9.9404299999999992</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.836000</v>
+        <v>-360.83600000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>35796.929301</v>
+        <v>35796.929300999996</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.943591</v>
+        <v>9.9435909999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1487.510000</v>
+        <v>1487.51</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-587.517000</v>
+        <v>-587.51700000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>35807.748570</v>
+        <v>35807.748570000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.946597</v>
+        <v>9.9465970000000006</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.900000</v>
+        <v>1619.9</v>
       </c>
       <c r="BV10" s="1">
-        <v>-844.356000</v>
+        <v>-844.35599999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>35818.995816</v>
+        <v>35818.995816000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.949721</v>
+        <v>9.9497210000000003</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1773.720000</v>
+        <v>1773.72</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1123.720000</v>
+        <v>-1123.72</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>35830.700409</v>
+        <v>35830.700408999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.952972</v>
+        <v>9.9529720000000008</v>
       </c>
       <c r="CE10" s="1">
-        <v>2195.690000</v>
+        <v>2195.69</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1803.380000</v>
+        <v>-1803.38</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>35658.176957</v>
+        <v>35658.176957000003</v>
       </c>
       <c r="B11" s="1">
         <v>9.905049</v>
       </c>
       <c r="C11" s="1">
-        <v>1153.630000</v>
+        <v>1153.6300000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.606000</v>
+        <v>-261.60599999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>35668.895502</v>
+        <v>35668.895501999999</v>
       </c>
       <c r="G11" s="1">
-        <v>9.908027</v>
+        <v>9.9080270000000006</v>
       </c>
       <c r="H11" s="1">
-        <v>1175.320000</v>
+        <v>1175.32</v>
       </c>
       <c r="I11" s="1">
-        <v>-219.185000</v>
+        <v>-219.185</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>35679.085312</v>
+        <v>35679.085312000003</v>
       </c>
       <c r="L11" s="1">
         <v>9.910857</v>
       </c>
       <c r="M11" s="1">
-        <v>1203.550000</v>
+        <v>1203.55</v>
       </c>
       <c r="N11" s="1">
-        <v>-152.481000</v>
+        <v>-152.48099999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>35689.273170</v>
+        <v>35689.27317</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.913687</v>
+        <v>9.9136869999999995</v>
       </c>
       <c r="R11" s="1">
-        <v>1211.340000</v>
+        <v>1211.3399999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.936000</v>
+        <v>-129.93600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>35700.126596</v>
+        <v>35700.126596000002</v>
       </c>
       <c r="V11" s="1">
-        <v>9.916702</v>
+        <v>9.9167020000000008</v>
       </c>
       <c r="W11" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.179000</v>
+        <v>-108.179</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>35710.320872</v>
+        <v>35710.320871999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.919534</v>
+        <v>9.9195340000000005</v>
       </c>
       <c r="AB11" s="1">
-        <v>1225.920000</v>
+        <v>1225.92</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.743400</v>
+        <v>-90.743399999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>35720.816218</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.922449</v>
+        <v>9.9224490000000003</v>
       </c>
       <c r="AG11" s="1">
-        <v>1230.700000</v>
+        <v>1230.7</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.349400</v>
+        <v>-86.349400000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>35731.018427</v>
+        <v>35731.018427000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.925283</v>
+        <v>9.9252830000000003</v>
       </c>
       <c r="AL11" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.882500</v>
+        <v>-89.882499999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>35741.792562</v>
+        <v>35741.792562000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.928276</v>
+        <v>9.9282760000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1245.340000</v>
+        <v>1245.3399999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.840000</v>
+        <v>-101.84</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>35752.765024</v>
@@ -2929,3975 +3345,3976 @@
         <v>9.931324</v>
       </c>
       <c r="AV11" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.279000</v>
+        <v>-121.279</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>35764.237988</v>
+        <v>35764.237988000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.934511</v>
+        <v>9.9345110000000005</v>
       </c>
       <c r="BA11" s="1">
-        <v>1263.590000</v>
+        <v>1263.5899999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.932000</v>
+        <v>-138.93199999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>35775.132609</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.937537</v>
+        <v>9.9375370000000007</v>
       </c>
       <c r="BF11" s="1">
-        <v>1303.370000</v>
+        <v>1303.3699999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.019000</v>
+        <v>-222.01900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>35785.923112</v>
+        <v>35785.923111999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.940534</v>
+        <v>9.9405339999999995</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.835000</v>
+        <v>-360.83499999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>35797.328084</v>
+        <v>35797.328084000001</v>
       </c>
       <c r="BO11" s="1">
         <v>9.943702</v>
       </c>
       <c r="BP11" s="1">
-        <v>1487.520000</v>
+        <v>1487.52</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-587.500000</v>
+        <v>-587.5</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>35808.185541</v>
+        <v>35808.185540999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.946718</v>
+        <v>9.9467180000000006</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.840000</v>
+        <v>1619.84</v>
       </c>
       <c r="BV11" s="1">
-        <v>-844.341000</v>
+        <v>-844.34100000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>35819.441048</v>
+        <v>35819.441048000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.949845</v>
+        <v>9.9498449999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1773.850000</v>
+        <v>1773.85</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1123.610000</v>
+        <v>-1123.6099999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>35831.241543</v>
+        <v>35831.241542999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.953123</v>
+        <v>9.9531229999999997</v>
       </c>
       <c r="CE11" s="1">
-        <v>2197.320000</v>
+        <v>2197.3200000000002</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1804.460000</v>
+        <v>-1804.46</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>35658.832668</v>
+        <v>35658.832668000003</v>
       </c>
       <c r="B12" s="1">
-        <v>9.905231</v>
+        <v>9.9052310000000006</v>
       </c>
       <c r="C12" s="1">
-        <v>1153.690000</v>
+        <v>1153.69</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.731000</v>
+        <v>-261.73099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>35669.272002</v>
+        <v>35669.272001999998</v>
       </c>
       <c r="G12" s="1">
-        <v>9.908131</v>
+        <v>9.9081309999999991</v>
       </c>
       <c r="H12" s="1">
-        <v>1175.600000</v>
+        <v>1175.5999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-219.333000</v>
+        <v>-219.333</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>35679.430032</v>
+        <v>35679.430031999997</v>
       </c>
       <c r="L12" s="1">
-        <v>9.910953</v>
+        <v>9.9109529999999992</v>
       </c>
       <c r="M12" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-152.466000</v>
+        <v>-152.46600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>35689.621826</v>
+        <v>35689.621826000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.913784</v>
+        <v>9.9137839999999997</v>
       </c>
       <c r="R12" s="1">
-        <v>1211.330000</v>
+        <v>1211.33</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.870000</v>
+        <v>-129.87</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>35700.471813</v>
+        <v>35700.471812999996</v>
       </c>
       <c r="V12" s="1">
         <v>9.916798</v>
       </c>
       <c r="W12" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.204000</v>
+        <v>-108.20399999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>35710.669062</v>
+        <v>35710.669062000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.919630</v>
+        <v>9.9196299999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>1226.060000</v>
+        <v>1226.06</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.819300</v>
+        <v>-90.819299999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>35721.232393</v>
+        <v>35721.232392999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.922565</v>
+        <v>9.9225650000000005</v>
       </c>
       <c r="AG12" s="1">
-        <v>1230.640000</v>
+        <v>1230.6400000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.338700</v>
+        <v>-86.338700000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>35731.295197</v>
+        <v>35731.295196999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.925360</v>
+        <v>9.9253599999999995</v>
       </c>
       <c r="AL12" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.887000</v>
+        <v>-89.887</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>35742.086157</v>
+        <v>35742.086156999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.928357</v>
+        <v>9.9283570000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.752000</v>
+        <v>-101.752</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>35753.128128</v>
+        <v>35753.128127999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.931424</v>
+        <v>9.9314239999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.266000</v>
+        <v>-121.26600000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>35764.597615</v>
+        <v>35764.597614999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.934610</v>
+        <v>9.9346099999999993</v>
       </c>
       <c r="BA12" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.904000</v>
+        <v>-138.904</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>35775.497201</v>
+        <v>35775.497200999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.937638</v>
+        <v>9.9376379999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1303.370000</v>
+        <v>1303.3699999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.013000</v>
+        <v>-222.01300000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>35786.673523</v>
+        <v>35786.673522999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.940743</v>
+        <v>9.9407429999999994</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.850000</v>
+        <v>1372.85</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.847000</v>
+        <v>-360.84699999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>35797.753652</v>
+        <v>35797.753651999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.943820</v>
+        <v>9.9438200000000005</v>
       </c>
       <c r="BP12" s="1">
-        <v>1487.560000</v>
+        <v>1487.56</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-587.549000</v>
+        <v>-587.54899999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>35808.615045</v>
+        <v>35808.615044999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.946838</v>
+        <v>9.9468379999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.800000</v>
+        <v>1619.8</v>
       </c>
       <c r="BV12" s="1">
-        <v>-844.238000</v>
+        <v>-844.23800000000006</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>35819.863351</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.949962</v>
+        <v>9.9499619999999993</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1773.740000</v>
+        <v>1773.74</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1123.510000</v>
+        <v>-1123.51</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>35831.780694</v>
+        <v>35831.780694000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.953272</v>
+        <v>9.9532720000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2196.610000</v>
+        <v>2196.61</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1802.290000</v>
+        <v>-1802.29</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>35659.195738</v>
+        <v>35659.195738000002</v>
       </c>
       <c r="B13" s="1">
-        <v>9.905332</v>
+        <v>9.9053319999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>1153.520000</v>
+        <v>1153.52</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.441000</v>
+        <v>-261.44099999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>35669.617677</v>
+        <v>35669.617677000002</v>
       </c>
       <c r="G13" s="1">
-        <v>9.908227</v>
+        <v>9.9082270000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1176.050000</v>
+        <v>1176.05</v>
       </c>
       <c r="I13" s="1">
-        <v>-219.337000</v>
+        <v>-219.33699999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>35679.777728</v>
+        <v>35679.777728000001</v>
       </c>
       <c r="L13" s="1">
-        <v>9.911049</v>
+        <v>9.9110490000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1203.630000</v>
+        <v>1203.6300000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-152.086000</v>
+        <v>-152.08600000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>35689.971043</v>
+        <v>35689.971042999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.913881</v>
+        <v>9.9138809999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1211.320000</v>
+        <v>1211.32</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.877000</v>
+        <v>-129.87700000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>35700.891923</v>
+        <v>35700.891923000003</v>
       </c>
       <c r="V13" s="1">
-        <v>9.916914</v>
+        <v>9.9169140000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.250000</v>
+        <v>-108.25</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>35711.080245</v>
+        <v>35711.080244999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.919745</v>
+        <v>9.9197450000000007</v>
       </c>
       <c r="AB13" s="1">
-        <v>1226.020000</v>
+        <v>1226.02</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.015400</v>
+        <v>-91.0154</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>35721.508136</v>
+        <v>35721.508135999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.922641</v>
+        <v>9.9226410000000005</v>
       </c>
       <c r="AG13" s="1">
-        <v>1230.710000</v>
+        <v>1230.71</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.323700</v>
+        <v>-86.323700000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>35731.643419</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.925457</v>
+        <v>9.9254569999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.887400</v>
+        <v>-89.8874</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>35742.445784</v>
+        <v>35742.445784000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.928457</v>
+        <v>9.9284569999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.707000</v>
+        <v>-101.70699999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>35753.492189</v>
+        <v>35753.492188999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.931526</v>
+        <v>9.9315259999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.300000</v>
+        <v>-121.3</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>35765.313312</v>
+        <v>35765.313311999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.934809</v>
+        <v>9.9348089999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>1263.600000</v>
+        <v>1263.5999999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.958000</v>
+        <v>-138.958</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>35776.216896</v>
+        <v>35776.216895999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.937838</v>
+        <v>9.9378379999999993</v>
       </c>
       <c r="BF13" s="1">
-        <v>1303.360000</v>
+        <v>1303.3599999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.014000</v>
+        <v>-222.01400000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>35787.049025</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.940847</v>
+        <v>9.9408469999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.890000</v>
+        <v>1372.89</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.814000</v>
+        <v>-360.81400000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>35798.145987</v>
+        <v>35798.145987000004</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.943929</v>
+        <v>9.9439290000000007</v>
       </c>
       <c r="BP13" s="1">
-        <v>1487.560000</v>
+        <v>1487.56</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-587.557000</v>
+        <v>-587.55700000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>35809.027220</v>
+        <v>35809.027220000004</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.946952</v>
+        <v>9.9469519999999996</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.770000</v>
+        <v>1619.77</v>
       </c>
       <c r="BV13" s="1">
-        <v>-844.179000</v>
+        <v>-844.17899999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>35820.595910</v>
+        <v>35820.595909999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.950166</v>
+        <v>9.9501659999999994</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1773.730000</v>
+        <v>1773.73</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1123.510000</v>
+        <v>-1123.51</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>35832.630877</v>
+        <v>35832.630877000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.953509</v>
+        <v>9.9535090000000004</v>
       </c>
       <c r="CE13" s="1">
-        <v>2198.130000</v>
+        <v>2198.13</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1804.040000</v>
+        <v>-1804.04</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>35659.539467</v>
+        <v>35659.539467000002</v>
       </c>
       <c r="B14" s="1">
-        <v>9.905428</v>
+        <v>9.9054280000000006</v>
       </c>
       <c r="C14" s="1">
-        <v>1153.550000</v>
+        <v>1153.55</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.453000</v>
+        <v>-261.45299999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>35669.961435</v>
+        <v>35669.961434999997</v>
       </c>
       <c r="G14" s="1">
-        <v>9.908323</v>
+        <v>9.9083229999999993</v>
       </c>
       <c r="H14" s="1">
-        <v>1175.560000</v>
+        <v>1175.56</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.847000</v>
+        <v>-219.84700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>35680.195358</v>
+        <v>35680.195357999997</v>
       </c>
       <c r="L14" s="1">
-        <v>9.911165</v>
+        <v>9.9111650000000004</v>
       </c>
       <c r="M14" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="N14" s="1">
-        <v>-152.171000</v>
+        <v>-152.17099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>35690.391121</v>
+        <v>35690.391121000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.913998</v>
+        <v>9.9139979999999994</v>
       </c>
       <c r="R14" s="1">
-        <v>1211.340000</v>
+        <v>1211.3399999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.857000</v>
+        <v>-129.857</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>35701.185555</v>
+        <v>35701.185554999996</v>
       </c>
       <c r="V14" s="1">
-        <v>9.916996</v>
+        <v>9.9169959999999993</v>
       </c>
       <c r="W14" s="1">
-        <v>1218.840000</v>
+        <v>1218.8399999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.204000</v>
+        <v>-108.20399999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>35711.368459</v>
+        <v>35711.368458999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.919825</v>
+        <v>9.9198249999999994</v>
       </c>
       <c r="AB14" s="1">
-        <v>1226.090000</v>
+        <v>1226.0899999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.805300</v>
+        <v>-90.805300000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>35721.852392</v>
+        <v>35721.852392000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.922737</v>
+        <v>9.9227369999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1230.640000</v>
+        <v>1230.6400000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.335600</v>
+        <v>-86.335599999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>35731.991614</v>
+        <v>35731.991613999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.925553</v>
+        <v>9.9255530000000007</v>
       </c>
       <c r="AL14" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.888400</v>
+        <v>-89.888400000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>35742.805383</v>
+        <v>35742.805382999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.928557</v>
+        <v>9.9285569999999996</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.696000</v>
+        <v>-101.696</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>35754.225742</v>
+        <v>35754.225742000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.931729</v>
+        <v>9.9317290000000007</v>
       </c>
       <c r="AV14" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.285000</v>
+        <v>-121.285</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>35765.670926</v>
+        <v>35765.670925999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.934909</v>
+        <v>9.9349089999999993</v>
       </c>
       <c r="BA14" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.937000</v>
+        <v>-138.93700000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>35776.578945</v>
+        <v>35776.578945000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.937939</v>
+        <v>9.9379390000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1303.400000</v>
+        <v>1303.4000000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.997000</v>
+        <v>-221.99700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>35787.427049</v>
+        <v>35787.427048999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.940952</v>
+        <v>9.9409519999999993</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.830000</v>
+        <v>1372.83</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.854000</v>
+        <v>-360.85399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>35798.566098</v>
+        <v>35798.566098000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.944046</v>
+        <v>9.9440460000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1487.540000</v>
+        <v>1487.54</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-587.516000</v>
+        <v>-587.51599999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>35809.757832</v>
+        <v>35809.757832000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.947155</v>
+        <v>9.9471550000000004</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.820000</v>
+        <v>1619.82</v>
       </c>
       <c r="BV14" s="1">
-        <v>-844.086000</v>
+        <v>-844.08600000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>35820.711477</v>
+        <v>35820.711476999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.950198</v>
+        <v>9.9501980000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1773.670000</v>
+        <v>1773.67</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1123.530000</v>
+        <v>-1123.53</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>35832.860485</v>
+        <v>35832.860484999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.953572</v>
+        <v>9.9535719999999994</v>
       </c>
       <c r="CE14" s="1">
-        <v>2198.200000</v>
+        <v>2198.1999999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1804.020000</v>
+        <v>-1804.02</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>35659.883230</v>
+        <v>35659.883229999999</v>
       </c>
       <c r="B15" s="1">
-        <v>9.905523</v>
+        <v>9.9055230000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>1153.900000</v>
+        <v>1153.9000000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.575000</v>
+        <v>-261.57499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>35670.393420</v>
+        <v>35670.39342</v>
       </c>
       <c r="G15" s="1">
-        <v>9.908443</v>
+        <v>9.9084430000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1175.540000</v>
+        <v>1175.54</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.709000</v>
+        <v>-218.709</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>35680.470143</v>
+        <v>35680.470142999999</v>
       </c>
       <c r="L15" s="1">
-        <v>9.911242</v>
+        <v>9.9112419999999997</v>
       </c>
       <c r="M15" s="1">
-        <v>1203.570000</v>
+        <v>1203.57</v>
       </c>
       <c r="N15" s="1">
-        <v>-152.250000</v>
+        <v>-152.25</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>35690.678833</v>
+        <v>35690.678832999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.914077</v>
+        <v>9.9140770000000007</v>
       </c>
       <c r="R15" s="1">
-        <v>1211.370000</v>
+        <v>1211.3699999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.825000</v>
+        <v>-129.82499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>35701.528786</v>
+        <v>35701.528786000003</v>
       </c>
       <c r="V15" s="1">
-        <v>9.917091</v>
+        <v>9.9170909999999992</v>
       </c>
       <c r="W15" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.158000</v>
+        <v>-108.158</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>35711.723061</v>
+        <v>35711.723060999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.919923</v>
+        <v>9.9199230000000007</v>
       </c>
       <c r="AB15" s="1">
-        <v>1226.060000</v>
+        <v>1226.06</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.798400</v>
+        <v>-90.798400000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>35722.196615</v>
+        <v>35722.196615000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.922832</v>
+        <v>9.9228319999999997</v>
       </c>
       <c r="AG15" s="1">
-        <v>1230.660000</v>
+        <v>1230.6600000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.360900</v>
+        <v>-86.360900000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>35732.688987</v>
+        <v>35732.688987000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.925747</v>
+        <v>9.9257469999999994</v>
       </c>
       <c r="AL15" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.874300</v>
+        <v>-89.874300000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>35743.527067</v>
+        <v>35743.527067000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.928758</v>
+        <v>9.9287580000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.712000</v>
+        <v>-101.712</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>35754.615137</v>
+        <v>35754.615137000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.931838</v>
+        <v>9.9318380000000008</v>
       </c>
       <c r="AV15" s="1">
-        <v>1255.200000</v>
+        <v>1255.2</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.271000</v>
+        <v>-121.271</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>35766.030560</v>
+        <v>35766.030559999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.935008</v>
+        <v>9.9350079999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1263.590000</v>
+        <v>1263.5899999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.936000</v>
+        <v>-138.93600000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>35776.940031</v>
+        <v>35776.940030999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.938039</v>
+        <v>9.9380389999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1303.380000</v>
+        <v>1303.3800000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.983000</v>
+        <v>-221.983</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>35788.111921</v>
+        <v>35788.111921000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.941142</v>
+        <v>9.9411419999999993</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.823000</v>
+        <v>-360.82299999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>35799.216850</v>
+        <v>35799.216849999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.944227</v>
+        <v>9.9442269999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1487.540000</v>
+        <v>1487.54</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-587.521000</v>
+        <v>-587.52099999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>35809.882834</v>
+        <v>35809.882834000004</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.947190</v>
+        <v>9.9471900000000009</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.730000</v>
+        <v>1619.73</v>
       </c>
       <c r="BV15" s="1">
-        <v>-844.065000</v>
+        <v>-844.06500000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>35821.161348</v>
+        <v>35821.161348000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.950323</v>
+        <v>9.9503229999999991</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1773.690000</v>
+        <v>1773.69</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1123.540000</v>
+        <v>-1123.54</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>35833.377348</v>
+        <v>35833.377348000002</v>
       </c>
       <c r="CD15" s="1">
         <v>9.953716</v>
       </c>
       <c r="CE15" s="1">
-        <v>2197.310000</v>
+        <v>2197.31</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1802.510000</v>
+        <v>-1802.51</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>35660.587512</v>
+        <v>35660.587511999998</v>
       </c>
       <c r="B16" s="1">
-        <v>9.905719</v>
+        <v>9.9057189999999995</v>
       </c>
       <c r="C16" s="1">
-        <v>1153.600000</v>
+        <v>1153.5999999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.631000</v>
+        <v>-261.63099999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>35670.655803</v>
+        <v>35670.655803000001</v>
       </c>
       <c r="G16" s="1">
-        <v>9.908516</v>
+        <v>9.9085160000000005</v>
       </c>
       <c r="H16" s="1">
-        <v>1175.610000</v>
+        <v>1175.6099999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-220.125000</v>
+        <v>-220.125</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>35680.816878</v>
+        <v>35680.816877999998</v>
       </c>
       <c r="L16" s="1">
-        <v>9.911338</v>
+        <v>9.9113380000000006</v>
       </c>
       <c r="M16" s="1">
-        <v>1203.450000</v>
+        <v>1203.45</v>
       </c>
       <c r="N16" s="1">
-        <v>-152.577000</v>
+        <v>-152.577</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>35691.028976</v>
+        <v>35691.028976000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.914175</v>
+        <v>9.9141750000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1211.340000</v>
+        <v>1211.3399999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.914000</v>
+        <v>-129.91399999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>35701.873042</v>
+        <v>35701.873041999999</v>
       </c>
       <c r="V16" s="1">
-        <v>9.917187</v>
+        <v>9.9171870000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>1218.720000</v>
+        <v>1218.72</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.282000</v>
+        <v>-108.282</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>35712.412540</v>
+        <v>35712.412539999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.920115</v>
+        <v>9.9201149999999991</v>
       </c>
       <c r="AB16" s="1">
-        <v>1226.210000</v>
+        <v>1226.21</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.940600</v>
+        <v>-90.940600000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>35722.882796</v>
+        <v>35722.882795999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.923023</v>
+        <v>9.9230230000000006</v>
       </c>
       <c r="AG16" s="1">
-        <v>1230.710000</v>
+        <v>1230.71</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.371300</v>
+        <v>-86.371300000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>35733.039165</v>
+        <v>35733.039165000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.925844</v>
+        <v>9.9258439999999997</v>
       </c>
       <c r="AL16" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.888800</v>
+        <v>-89.888800000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>35743.886634</v>
+        <v>35743.886634000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.928857</v>
+        <v>9.9288570000000007</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.706000</v>
+        <v>-101.706</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>35754.977181</v>
+        <v>35754.977181000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.931938</v>
+        <v>9.9319380000000006</v>
       </c>
       <c r="AV16" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.284000</v>
+        <v>-121.28400000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>35766.706076</v>
+        <v>35766.706076000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.935196</v>
+        <v>9.9351959999999995</v>
       </c>
       <c r="BA16" s="1">
-        <v>1263.600000</v>
+        <v>1263.5999999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.915000</v>
+        <v>-138.91499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>35777.612110</v>
+        <v>35777.612110000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.938226</v>
+        <v>9.9382260000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1303.410000</v>
+        <v>1303.4100000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.985000</v>
+        <v>-221.98500000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>35788.549919</v>
+        <v>35788.549918999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.941264</v>
+        <v>9.9412640000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.870000</v>
+        <v>1372.87</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.829000</v>
+        <v>-360.82900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>35799.382017</v>
+        <v>35799.382017000004</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.944273</v>
+        <v>9.9442730000000008</v>
       </c>
       <c r="BP16" s="1">
-        <v>1487.530000</v>
+        <v>1487.53</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-587.526000</v>
+        <v>-587.52599999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>35810.296484</v>
+        <v>35810.296483999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.947305</v>
+        <v>9.9473050000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1619.740000</v>
+        <v>1619.74</v>
       </c>
       <c r="BV16" s="1">
-        <v>-843.981000</v>
+        <v>-843.98099999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>35821.592373</v>
+        <v>35821.592372999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.950442</v>
+        <v>9.9504420000000007</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1773.780000</v>
+        <v>1773.78</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1123.630000</v>
+        <v>-1123.6300000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>35833.895637</v>
+        <v>35833.895637000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.953860</v>
+        <v>9.9538600000000006</v>
       </c>
       <c r="CE16" s="1">
-        <v>2197.720000</v>
+        <v>2197.7199999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1802.730000</v>
+        <v>-1802.73</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>35660.929752</v>
+        <v>35660.929751999996</v>
       </c>
       <c r="B17" s="1">
-        <v>9.905814</v>
+        <v>9.9058139999999995</v>
       </c>
       <c r="C17" s="1">
-        <v>1153.710000</v>
+        <v>1153.71</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.503000</v>
+        <v>-261.50299999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>35670.999034</v>
       </c>
       <c r="G17" s="1">
-        <v>9.908611</v>
+        <v>9.9086110000000005</v>
       </c>
       <c r="H17" s="1">
-        <v>1174.880000</v>
+        <v>1174.8800000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-219.122000</v>
+        <v>-219.12200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>35681.161597</v>
+        <v>35681.161596999998</v>
       </c>
       <c r="L17" s="1">
-        <v>9.911434</v>
+        <v>9.9114339999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1203.490000</v>
+        <v>1203.49</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.516000</v>
+        <v>-152.51599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>35691.377664</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.914272</v>
+        <v>9.9142720000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>1211.290000</v>
+        <v>1211.29</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.928000</v>
+        <v>-129.928</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>35702.559970</v>
+        <v>35702.559970000002</v>
       </c>
       <c r="V17" s="1">
-        <v>9.917378</v>
+        <v>9.9173779999999994</v>
       </c>
       <c r="W17" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.171000</v>
+        <v>-108.17100000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>35712.765651</v>
+        <v>35712.765651000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.920213</v>
+        <v>9.9202130000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>1226.150000</v>
+        <v>1226.1500000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.934000</v>
+        <v>-90.933999999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>35723.226278</v>
+        <v>35723.226278000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.923118</v>
+        <v>9.9231180000000005</v>
       </c>
       <c r="AG17" s="1">
-        <v>1230.650000</v>
+        <v>1230.6500000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.309700</v>
+        <v>-86.309700000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>35733.387816</v>
+        <v>35733.387816000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.925941</v>
+        <v>9.9259409999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.878300</v>
+        <v>-89.878299999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>35744.243291</v>
+        <v>35744.243290999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.928956</v>
+        <v>9.9289559999999994</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.712000</v>
+        <v>-101.712</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>35755.650252</v>
+        <v>35755.650251999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.932125</v>
+        <v>9.9321249999999992</v>
       </c>
       <c r="AV17" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.267000</v>
+        <v>-121.267</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>35767.137597</v>
+        <v>35767.137597000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.935316</v>
+        <v>9.9353160000000003</v>
       </c>
       <c r="BA17" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.950000</v>
+        <v>-138.94999999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>35778.049122</v>
+        <v>35778.049121999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.938347</v>
+        <v>9.9383470000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1303.390000</v>
+        <v>1303.3900000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.018000</v>
+        <v>-222.018</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>35788.926352</v>
+        <v>35788.926352000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.941368</v>
+        <v>9.9413680000000006</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.857000</v>
+        <v>-360.85700000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>35799.777826</v>
+        <v>35799.777825999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.944383</v>
+        <v>9.9443830000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1487.530000</v>
+        <v>1487.53</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-587.574000</v>
+        <v>-587.57399999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>35810.726053</v>
+        <v>35810.726052999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.947424</v>
+        <v>9.9474239999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.790000</v>
+        <v>1619.79</v>
       </c>
       <c r="BV17" s="1">
-        <v>-843.895000</v>
+        <v>-843.89499999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>35822.014499</v>
+        <v>35822.014498999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.950560</v>
+        <v>9.9505599999999994</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1773.660000</v>
+        <v>1773.66</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1123.630000</v>
+        <v>-1123.6300000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>35834.446692</v>
+        <v>35834.446691999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.954013</v>
+        <v>9.9540129999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>2198.110000</v>
+        <v>2198.11</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1804.480000</v>
+        <v>-1804.48</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>35661.280425</v>
+        <v>35661.280424999997</v>
       </c>
       <c r="B18" s="1">
-        <v>9.905911</v>
+        <v>9.9059109999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>1153.660000</v>
+        <v>1153.6600000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.706000</v>
+        <v>-261.70600000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>35671.342794</v>
+        <v>35671.342793999997</v>
       </c>
       <c r="G18" s="1">
-        <v>9.908706</v>
+        <v>9.9087060000000005</v>
       </c>
       <c r="H18" s="1">
-        <v>1175.170000</v>
+        <v>1175.17</v>
       </c>
       <c r="I18" s="1">
-        <v>-219.595000</v>
+        <v>-219.595</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>35681.852038</v>
+        <v>35681.852037999997</v>
       </c>
       <c r="L18" s="1">
         <v>9.911626</v>
       </c>
       <c r="M18" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="N18" s="1">
-        <v>-152.262000</v>
+        <v>-152.262</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>35692.070575</v>
+        <v>35692.070574999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.914464</v>
+        <v>9.9144640000000006</v>
       </c>
       <c r="R18" s="1">
-        <v>1211.300000</v>
+        <v>1211.3</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.919000</v>
+        <v>-129.91900000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>35702.903726</v>
+        <v>35702.903725999997</v>
       </c>
       <c r="V18" s="1">
-        <v>9.917473</v>
+        <v>9.9174729999999993</v>
       </c>
       <c r="W18" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.241000</v>
+        <v>-108.241</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>35713.114835</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.920310</v>
+        <v>9.9203100000000006</v>
       </c>
       <c r="AB18" s="1">
-        <v>1226.090000</v>
+        <v>1226.0899999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.952000</v>
+        <v>-90.951999999999998</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>35723.569542</v>
+        <v>35723.569541999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.923214</v>
+        <v>9.9232139999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1230.650000</v>
+        <v>1230.6500000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.330300</v>
+        <v>-86.330299999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>35734.045512</v>
+        <v>35734.045511999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.926124</v>
+        <v>9.9261239999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.855300</v>
+        <v>-89.8553</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>35744.923769</v>
+        <v>35744.923769000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.929145</v>
+        <v>9.9291450000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1245.390000</v>
+        <v>1245.3900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.781000</v>
+        <v>-101.78100000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>35756.106076</v>
+        <v>35756.106075999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.932252</v>
+        <v>9.9322520000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.293000</v>
+        <v>-121.29300000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>35767.497724</v>
+        <v>35767.497724000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>9.935416</v>
       </c>
       <c r="BA18" s="1">
-        <v>1263.600000</v>
+        <v>1263.5999999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.912000</v>
+        <v>-138.91200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>35778.411165</v>
+        <v>35778.411164999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.938448</v>
+        <v>9.9384479999999993</v>
       </c>
       <c r="BF18" s="1">
-        <v>1303.340000</v>
+        <v>1303.3399999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.002000</v>
+        <v>-222.00200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>35789.300334</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.941472</v>
+        <v>9.9414719999999992</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.866000</v>
+        <v>-360.86599999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>35800.199957</v>
+        <v>35800.199956999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.944500</v>
+        <v>9.9444999999999997</v>
       </c>
       <c r="BP18" s="1">
-        <v>1487.560000</v>
+        <v>1487.56</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-587.536000</v>
+        <v>-587.53599999999994</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>35811.154592</v>
+        <v>35811.154591999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.947543</v>
+        <v>9.9475429999999996</v>
       </c>
       <c r="BU18" s="1">
-        <v>1619.810000</v>
+        <v>1619.81</v>
       </c>
       <c r="BV18" s="1">
-        <v>-843.796000</v>
+        <v>-843.79600000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>35822.433587</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.950676</v>
+        <v>9.9506759999999996</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1773.830000</v>
+        <v>1773.83</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1123.690000</v>
+        <v>-1123.69</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>35834.977906</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.954161</v>
+        <v>9.9541609999999991</v>
       </c>
       <c r="CE18" s="1">
-        <v>2197.630000</v>
+        <v>2197.63</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1802.680000</v>
+        <v>-1802.68</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>35661.959975</v>
+        <v>35661.959974999998</v>
       </c>
       <c r="B19" s="1">
-        <v>9.906100</v>
+        <v>9.9061000000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>1153.480000</v>
+        <v>1153.48</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.390000</v>
+        <v>-261.39</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>35672.032699</v>
+        <v>35672.032699000003</v>
       </c>
       <c r="G19" s="1">
-        <v>9.908898</v>
+        <v>9.9088980000000006</v>
       </c>
       <c r="H19" s="1">
-        <v>1175.730000</v>
+        <v>1175.73</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.672000</v>
+        <v>-219.672</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>35682.201676</v>
+        <v>35682.201675999997</v>
       </c>
       <c r="L19" s="1">
-        <v>9.911723</v>
+        <v>9.9117230000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>1203.470000</v>
+        <v>1203.47</v>
       </c>
       <c r="N19" s="1">
-        <v>-152.300000</v>
+        <v>-152.30000000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>35692.422734</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.914562</v>
+        <v>9.9145620000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1211.290000</v>
+        <v>1211.29</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.875000</v>
+        <v>-129.875</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>35703.243456</v>
+        <v>35703.243455999997</v>
       </c>
       <c r="V19" s="1">
-        <v>9.917568</v>
+        <v>9.9175679999999993</v>
       </c>
       <c r="W19" s="1">
-        <v>1218.720000</v>
+        <v>1218.72</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.280000</v>
+        <v>-108.28</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>35713.770546</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.920492</v>
+        <v>9.9204919999999994</v>
       </c>
       <c r="AB19" s="1">
-        <v>1226.200000</v>
+        <v>1226.2</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.851800</v>
+        <v>-90.851799999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>35724.223732</v>
+        <v>35724.223731999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.923395</v>
+        <v>9.9233949999999993</v>
       </c>
       <c r="AG19" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.297600</v>
+        <v>-86.297600000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>35734.433879</v>
+        <v>35734.433878999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.926232</v>
+        <v>9.9262320000000006</v>
       </c>
       <c r="AL19" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.883700</v>
+        <v>-89.883700000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>35745.361240</v>
+        <v>35745.361239999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.929267</v>
+        <v>9.9292669999999994</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.754000</v>
+        <v>-101.754</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>35756.472618</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.932354</v>
+        <v>9.9323540000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1255.220000</v>
+        <v>1255.22</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.257000</v>
+        <v>-121.25700000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>35767.861271</v>
+        <v>35767.861271000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.935517</v>
+        <v>9.9355170000000008</v>
       </c>
       <c r="BA19" s="1">
-        <v>1263.590000</v>
+        <v>1263.5899999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.933000</v>
+        <v>-138.93299999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>35778.770772</v>
+        <v>35778.770772000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.938547</v>
+        <v>9.9385469999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1303.370000</v>
+        <v>1303.3699999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.989000</v>
+        <v>-221.989</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>35789.723918</v>
+        <v>35789.723918000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.941590</v>
+        <v>9.9415899999999997</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.890000</v>
+        <v>1372.89</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.823000</v>
+        <v>-360.82299999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>35800.595762</v>
+        <v>35800.595761999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.944610</v>
+        <v>9.9446100000000008</v>
       </c>
       <c r="BP19" s="1">
-        <v>1487.560000</v>
+        <v>1487.56</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-587.582000</v>
+        <v>-587.58199999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>35811.565778</v>
+        <v>35811.565777999996</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.947657</v>
+        <v>9.9476569999999995</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.860000</v>
+        <v>1619.86</v>
       </c>
       <c r="BV19" s="1">
-        <v>-843.772000</v>
+        <v>-843.77200000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>35822.861670</v>
+        <v>35822.861669999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.950795</v>
+        <v>9.9507949999999994</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1773.630000</v>
+        <v>1773.63</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1123.670000</v>
+        <v>-1123.67</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>35835.497715</v>
+        <v>35835.497714999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.954305</v>
+        <v>9.9543049999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>2195.940000</v>
+        <v>2195.94</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1803.430000</v>
+        <v>-1803.43</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>35662.303671</v>
+        <v>35662.303671000001</v>
       </c>
       <c r="B20" s="1">
-        <v>9.906195</v>
+        <v>9.9061950000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>1153.740000</v>
+        <v>1153.74</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.608000</v>
+        <v>-261.608</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>35672.379401</v>
+        <v>35672.379400999998</v>
       </c>
       <c r="G20" s="1">
-        <v>9.908994</v>
+        <v>9.9089939999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1175.390000</v>
+        <v>1175.3900000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-219.329000</v>
+        <v>-219.32900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>35682.548908</v>
+        <v>35682.548907999997</v>
       </c>
       <c r="L20" s="1">
-        <v>9.911819</v>
+        <v>9.9118189999999995</v>
       </c>
       <c r="M20" s="1">
-        <v>1203.540000</v>
+        <v>1203.54</v>
       </c>
       <c r="N20" s="1">
-        <v>-152.443000</v>
+        <v>-152.44300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>35692.773406</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.914659</v>
+        <v>9.9146590000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.825000</v>
+        <v>-129.82499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>35703.897183</v>
+        <v>35703.897183000001</v>
       </c>
       <c r="V20" s="1">
-        <v>9.917749</v>
+        <v>9.9177490000000006</v>
       </c>
       <c r="W20" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.237000</v>
+        <v>-108.23699999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>35714.163874</v>
+        <v>35714.163873999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.920601</v>
+        <v>9.9206009999999996</v>
       </c>
       <c r="AB20" s="1">
-        <v>1226.120000</v>
+        <v>1226.1199999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.972600</v>
+        <v>-90.9726</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>35724.605157</v>
+        <v>35724.605156999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.923501</v>
+        <v>9.9235009999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1230.670000</v>
+        <v>1230.67</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.359400</v>
+        <v>-86.359399999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>35734.781575</v>
+        <v>35734.781575000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.926328</v>
+        <v>9.9263279999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.887100</v>
+        <v>-89.887100000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>35745.722824</v>
+        <v>35745.722823999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.929367</v>
+        <v>9.9293669999999992</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.738000</v>
+        <v>-101.738</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>35756.835225</v>
+        <v>35756.835225000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.932454</v>
+        <v>9.9324539999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.286000</v>
+        <v>-121.286</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>35768.285869</v>
+        <v>35768.285868999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.935635</v>
+        <v>9.9356349999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>1263.600000</v>
+        <v>1263.5999999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.945000</v>
+        <v>-138.94499999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>35779.200300</v>
+        <v>35779.200299999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.938667</v>
+        <v>9.9386670000000006</v>
       </c>
       <c r="BF20" s="1">
-        <v>1303.400000</v>
+        <v>1303.4000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.984000</v>
+        <v>-221.98400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>35790.082525</v>
+        <v>35790.082524999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.941690</v>
+        <v>9.9416899999999995</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.880000</v>
+        <v>1372.88</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.860000</v>
+        <v>-360.86</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>35801.008400</v>
+        <v>35801.008399999999</v>
       </c>
       <c r="BO20" s="1">
         <v>9.944725</v>
       </c>
       <c r="BP20" s="1">
-        <v>1487.580000</v>
+        <v>1487.58</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-587.546000</v>
+        <v>-587.54600000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>35811.998257</v>
+        <v>35811.998256999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.947777</v>
+        <v>9.9477770000000003</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.950000</v>
+        <v>1619.95</v>
       </c>
       <c r="BV20" s="1">
-        <v>-843.701000</v>
+        <v>-843.70100000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>35823.277809</v>
+        <v>35823.277808999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.950911</v>
+        <v>9.9509109999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1773.770000</v>
+        <v>1773.77</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1123.540000</v>
+        <v>-1123.54</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>35836.013554</v>
+        <v>35836.013553999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.954448</v>
+        <v>9.9544479999999993</v>
       </c>
       <c r="CE20" s="1">
-        <v>2196.850000</v>
+        <v>2196.85</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1804.930000</v>
+        <v>-1804.93</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>35662.651366</v>
+        <v>35662.651365999998</v>
       </c>
       <c r="B21" s="1">
-        <v>9.906292</v>
+        <v>9.9062920000000005</v>
       </c>
       <c r="C21" s="1">
-        <v>1153.980000</v>
+        <v>1153.98</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.659000</v>
+        <v>-261.65899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>35672.722669</v>
+        <v>35672.722669000002</v>
       </c>
       <c r="G21" s="1">
-        <v>9.909090</v>
+        <v>9.9090900000000008</v>
       </c>
       <c r="H21" s="1">
-        <v>1175.350000</v>
+        <v>1175.3499999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-219.340000</v>
+        <v>-219.34</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>35683.211072</v>
+        <v>35683.211071999998</v>
       </c>
       <c r="L21" s="1">
-        <v>9.912003</v>
+        <v>9.9120030000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1203.390000</v>
+        <v>1203.3900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.345000</v>
+        <v>-152.345</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>35693.438083</v>
+        <v>35693.438083000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.914844</v>
+        <v>9.9148440000000004</v>
       </c>
       <c r="R21" s="1">
-        <v>1211.370000</v>
+        <v>1211.3699999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.944000</v>
+        <v>-129.94399999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>35704.277615</v>
+        <v>35704.277614999999</v>
       </c>
       <c r="V21" s="1">
-        <v>9.917855</v>
+        <v>9.9178549999999994</v>
       </c>
       <c r="W21" s="1">
-        <v>1218.680000</v>
+        <v>1218.68</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.236000</v>
+        <v>-108.236</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>35714.509121</v>
+        <v>35714.509121000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.920697</v>
+        <v>9.9206970000000005</v>
       </c>
       <c r="AB21" s="1">
-        <v>1226.130000</v>
+        <v>1226.1300000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.891200</v>
+        <v>-90.891199999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>35724.946435</v>
+        <v>35724.946434999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.923596</v>
+        <v>9.9235959999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1230.610000</v>
+        <v>1230.6099999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.318400</v>
+        <v>-86.318399999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>35735.132775</v>
+        <v>35735.132774999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.926426</v>
+        <v>9.9264259999999993</v>
       </c>
       <c r="AL21" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.868500</v>
+        <v>-89.868499999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>35746.080441</v>
+        <v>35746.080440999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.929467</v>
+        <v>9.9294670000000007</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.796000</v>
+        <v>-101.79600000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>35757.251374</v>
+        <v>35757.251373999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.932570</v>
+        <v>9.9325700000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1255.250000</v>
+        <v>1255.25</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.289000</v>
+        <v>-121.289</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>35768.577978</v>
+        <v>35768.577978000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.935716</v>
+        <v>9.9357159999999993</v>
       </c>
       <c r="BA21" s="1">
-        <v>1263.590000</v>
+        <v>1263.5899999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.935000</v>
+        <v>-138.935</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>35779.496412</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.938749</v>
+        <v>9.9387489999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1303.380000</v>
+        <v>1303.3800000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.997000</v>
+        <v>-221.99700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>35790.456510</v>
+        <v>35790.456510000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.941793</v>
+        <v>9.9417930000000005</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.820000</v>
+        <v>1372.82</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.848000</v>
+        <v>-360.84800000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>35801.416606</v>
+        <v>35801.416605999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.944838</v>
+        <v>9.9448380000000007</v>
       </c>
       <c r="BP21" s="1">
-        <v>1487.610000</v>
+        <v>1487.61</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-587.547000</v>
+        <v>-587.54700000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>35812.425808</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.947896</v>
+        <v>9.9478960000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1620.110000</v>
+        <v>1620.11</v>
       </c>
       <c r="BV21" s="1">
-        <v>-843.606000</v>
+        <v>-843.60599999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>35823.723932</v>
+        <v>35823.723932000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.951034</v>
+        <v>9.9510339999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1773.800000</v>
+        <v>1773.8</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1123.610000</v>
+        <v>-1123.6099999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>35836.532368</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.954592</v>
+        <v>9.9545919999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2195.910000</v>
+        <v>2195.91</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1805.010000</v>
+        <v>-1805.01</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>35663.296661</v>
       </c>
       <c r="B22" s="1">
-        <v>9.906471</v>
+        <v>9.9064709999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1153.680000</v>
+        <v>1153.68</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.087000</v>
+        <v>-261.08699999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>35673.380825</v>
       </c>
       <c r="G22" s="1">
-        <v>9.909272</v>
+        <v>9.9092719999999996</v>
       </c>
       <c r="H22" s="1">
-        <v>1175.020000</v>
+        <v>1175.02</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.992000</v>
+        <v>-219.99199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>35683.583532</v>
+        <v>35683.583531999997</v>
       </c>
       <c r="L22" s="1">
-        <v>9.912107</v>
+        <v>9.9121070000000007</v>
       </c>
       <c r="M22" s="1">
-        <v>1203.180000</v>
+        <v>1203.18</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.531000</v>
+        <v>-152.53100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>35693.816493</v>
+        <v>35693.816492999998</v>
       </c>
       <c r="Q22" s="1">
         <v>9.914949</v>
       </c>
       <c r="R22" s="1">
-        <v>1211.350000</v>
+        <v>1211.3499999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.929000</v>
+        <v>-129.929</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>35704.617385</v>
+        <v>35704.617384999998</v>
       </c>
       <c r="V22" s="1">
-        <v>9.917949</v>
+        <v>9.9179490000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1218.660000</v>
+        <v>1218.6600000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.294000</v>
+        <v>-108.294</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>35714.858770</v>
+        <v>35714.858769999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.920794</v>
+        <v>9.9207940000000008</v>
       </c>
       <c r="AB22" s="1">
-        <v>1226.060000</v>
+        <v>1226.06</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.899700</v>
+        <v>-90.899699999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>35725.294137</v>
+        <v>35725.294136999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.923693</v>
+        <v>9.9236930000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.323900</v>
+        <v>-86.323899999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>35735.555862</v>
+        <v>35735.555862000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.926543</v>
+        <v>9.9265430000000006</v>
       </c>
       <c r="AL22" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.877800</v>
+        <v>-89.877799999999993</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>35746.551673</v>
+        <v>35746.551673000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.929598</v>
+        <v>9.9295980000000004</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.768000</v>
+        <v>-101.768</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>35757.566792</v>
+        <v>35757.566791999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.932657</v>
+        <v>9.9326570000000007</v>
       </c>
       <c r="AV22" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.283000</v>
+        <v>-121.283</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>35768.935128</v>
+        <v>35768.935127999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.935815</v>
+        <v>9.9358149999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1263.600000</v>
+        <v>1263.5999999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.938000</v>
+        <v>-138.93799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>35779.852043</v>
+        <v>35779.852042999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.938848</v>
+        <v>9.9388480000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1303.390000</v>
+        <v>1303.3900000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.996000</v>
+        <v>-221.99600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>35790.831982</v>
+        <v>35790.831982000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.941898</v>
+        <v>9.9418980000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.870000</v>
+        <v>1372.87</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.844000</v>
+        <v>-360.84399999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>35802.232567</v>
+        <v>35802.232566999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.945065</v>
+        <v>9.9450649999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1487.540000</v>
+        <v>1487.54</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-587.564000</v>
+        <v>-587.56399999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>35812.850385</v>
+        <v>35812.850384999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.948014</v>
+        <v>9.9480140000000006</v>
       </c>
       <c r="BU22" s="1">
-        <v>1620.240000</v>
+        <v>1620.24</v>
       </c>
       <c r="BV22" s="1">
-        <v>-843.584000</v>
+        <v>-843.58399999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>35824.147761</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.951152</v>
+        <v>9.9511520000000004</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1773.700000</v>
+        <v>1773.7</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1123.560000</v>
+        <v>-1123.56</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>35837.085903</v>
+        <v>35837.085902999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.954746</v>
+        <v>9.9547460000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2195.620000</v>
+        <v>2195.62</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1802.790000</v>
+        <v>-1802.79</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>35663.674613</v>
+        <v>35663.674613000003</v>
       </c>
       <c r="B23" s="1">
-        <v>9.906576</v>
+        <v>9.9065759999999994</v>
       </c>
       <c r="C23" s="1">
-        <v>1153.680000</v>
+        <v>1153.68</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.533000</v>
+        <v>-261.53300000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>35673.754839</v>
+        <v>35673.754839000001</v>
       </c>
       <c r="G23" s="1">
         <v>9.909376</v>
       </c>
       <c r="H23" s="1">
-        <v>1175.430000</v>
+        <v>1175.43</v>
       </c>
       <c r="I23" s="1">
-        <v>-219.422000</v>
+        <v>-219.422</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>35683.928249</v>
+        <v>35683.928248999997</v>
       </c>
       <c r="L23" s="1">
-        <v>9.912202</v>
+        <v>9.9122020000000006</v>
       </c>
       <c r="M23" s="1">
-        <v>1203.410000</v>
+        <v>1203.4100000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-152.321000</v>
+        <v>-152.321</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>35694.164189</v>
+        <v>35694.164189000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.915046</v>
+        <v>9.9150460000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1211.310000</v>
+        <v>1211.31</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.879000</v>
+        <v>-129.87899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>35704.961598</v>
+        <v>35704.961598000002</v>
       </c>
       <c r="V23" s="1">
-        <v>9.918045</v>
+        <v>9.9180449999999993</v>
       </c>
       <c r="W23" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.232000</v>
+        <v>-108.232</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>35715.274417</v>
+        <v>35715.274417000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.920910</v>
+        <v>9.9209099999999992</v>
       </c>
       <c r="AB23" s="1">
-        <v>1226.130000</v>
+        <v>1226.1300000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.942800</v>
+        <v>-90.942800000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>35725.708295</v>
+        <v>35725.708294999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.923808</v>
+        <v>9.9238079999999993</v>
       </c>
       <c r="AG23" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.314100</v>
+        <v>-86.314099999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>35735.835109</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.926621</v>
+        <v>9.9266210000000008</v>
       </c>
       <c r="AL23" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.876200</v>
+        <v>-89.876199999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>35746.802121</v>
+        <v>35746.802121000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.929667</v>
+        <v>9.9296670000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.809000</v>
+        <v>-101.809</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>35757.928408</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.932758</v>
+        <v>9.9327579999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1255.230000</v>
+        <v>1255.23</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.292000</v>
+        <v>-121.292</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>35769.292217</v>
+        <v>35769.292217000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.935915</v>
+        <v>9.9359149999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1263.620000</v>
+        <v>1263.6199999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.948000</v>
+        <v>-138.94800000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>35780.218103</v>
+        <v>35780.218102999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.938949</v>
+        <v>9.9389489999999991</v>
       </c>
       <c r="BF23" s="1">
-        <v>1303.360000</v>
+        <v>1303.3599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.006000</v>
+        <v>-222.006</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>35791.606235</v>
+        <v>35791.606234999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.942113</v>
+        <v>9.9421130000000009</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.860000</v>
+        <v>1372.86</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.856000</v>
+        <v>-360.85599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>35802.634782</v>
+        <v>35802.634782000001</v>
       </c>
       <c r="BO23" s="1">
         <v>9.945176</v>
       </c>
       <c r="BP23" s="1">
-        <v>1487.570000</v>
+        <v>1487.57</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-587.603000</v>
+        <v>-587.60299999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>35813.266528</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.948130</v>
+        <v>9.9481300000000008</v>
       </c>
       <c r="BU23" s="1">
-        <v>1620.310000</v>
+        <v>1620.31</v>
       </c>
       <c r="BV23" s="1">
-        <v>-843.543000</v>
+        <v>-843.54300000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>35824.568865</v>
+        <v>35824.568865000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.951269</v>
+        <v>9.9512689999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1773.770000</v>
+        <v>1773.77</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1123.630000</v>
+        <v>-1123.6300000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>35837.924143</v>
+        <v>35837.924142999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.954979</v>
+        <v>9.9549789999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2196.080000</v>
+        <v>2196.08</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1804.610000</v>
+        <v>-1804.61</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>35664.021812</v>
+        <v>35664.021811999999</v>
       </c>
       <c r="B24" s="1">
-        <v>9.906673</v>
+        <v>9.9066729999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>1153.720000</v>
+        <v>1153.72</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.262000</v>
+        <v>-261.262</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>35674.101545</v>
+        <v>35674.101544999998</v>
       </c>
       <c r="G24" s="1">
-        <v>9.909473</v>
+        <v>9.9094730000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1175.300000</v>
+        <v>1175.3</v>
       </c>
       <c r="I24" s="1">
-        <v>-219.108000</v>
+        <v>-219.108</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>35684.273465</v>
+        <v>35684.273464999998</v>
       </c>
       <c r="L24" s="1">
-        <v>9.912298</v>
+        <v>9.9122979999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1203.360000</v>
+        <v>1203.3599999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.209000</v>
+        <v>-152.209</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>35694.618524</v>
+        <v>35694.618523999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.915172</v>
+        <v>9.9151720000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1211.340000</v>
+        <v>1211.3399999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.852000</v>
+        <v>-129.852</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>35705.374269</v>
       </c>
       <c r="V24" s="1">
-        <v>9.918160</v>
+        <v>9.9181600000000003</v>
       </c>
       <c r="W24" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.243000</v>
+        <v>-108.24299999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>35715.554193</v>
+        <v>35715.554193000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.920987</v>
+        <v>9.9209870000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>1226.250000</v>
+        <v>1226.25</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.982900</v>
+        <v>-90.982900000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>35725.998419</v>
+        <v>35725.998419000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.923888</v>
+        <v>9.9238879999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1230.640000</v>
+        <v>1230.6400000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.330900</v>
+        <v>-86.3309</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>35736.184789</v>
+        <v>35736.184788999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.926718</v>
+        <v>9.9267179999999993</v>
       </c>
       <c r="AL24" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.890000</v>
+        <v>-89.89</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>35747.158778</v>
+        <v>35747.158777999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.929766</v>
+        <v>9.9297660000000008</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.787000</v>
+        <v>-101.78700000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>35758.296290</v>
+        <v>35758.296289999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.932860</v>
+        <v>9.9328599999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.264000</v>
+        <v>-121.264</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>35770.011992</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.936114</v>
+        <v>9.9361139999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.949000</v>
+        <v>-138.94900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>35780.937786</v>
+        <v>35780.937786000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.939149</v>
+        <v>9.9391490000000005</v>
       </c>
       <c r="BF24" s="1">
-        <v>1303.370000</v>
+        <v>1303.3699999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.021000</v>
+        <v>-222.02099999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>35791.977255</v>
+        <v>35791.977254999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.942216</v>
+        <v>9.9422160000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.870000</v>
+        <v>1372.87</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.849000</v>
+        <v>-360.84899999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>35803.048446</v>
+        <v>35803.048446000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.945291</v>
+        <v>9.9452909999999992</v>
       </c>
       <c r="BP24" s="1">
-        <v>1487.530000</v>
+        <v>1487.53</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-587.561000</v>
+        <v>-587.56100000000004</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>35813.695097</v>
+        <v>35813.695097000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.948249</v>
+        <v>9.9482490000000006</v>
       </c>
       <c r="BU24" s="1">
-        <v>1620.410000</v>
+        <v>1620.41</v>
       </c>
       <c r="BV24" s="1">
-        <v>-843.572000</v>
+        <v>-843.572</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>35825.327279</v>
+        <v>35825.327278999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.951480</v>
+        <v>9.9514800000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1773.870000</v>
+        <v>1773.87</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1123.620000</v>
+        <v>-1123.6199999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>35838.168212</v>
+        <v>35838.168211999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.955047</v>
+        <v>9.9550470000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>2198.380000</v>
+        <v>2198.38</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1804.150000</v>
+        <v>-1804.15</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>35664.362564</v>
+        <v>35664.362564000003</v>
       </c>
       <c r="B25" s="1">
-        <v>9.906767</v>
+        <v>9.9067670000000003</v>
       </c>
       <c r="C25" s="1">
-        <v>1153.450000</v>
+        <v>1153.45</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.118000</v>
+        <v>-261.11799999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>35674.443752</v>
+        <v>35674.443751999999</v>
       </c>
       <c r="G25" s="1">
-        <v>9.909568</v>
+        <v>9.9095680000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1175.190000</v>
+        <v>1175.19</v>
       </c>
       <c r="I25" s="1">
-        <v>-218.893000</v>
+        <v>-218.893</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>35684.689113</v>
       </c>
       <c r="L25" s="1">
-        <v>9.912414</v>
+        <v>9.9124140000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1203.350000</v>
+        <v>1203.3499999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-152.072000</v>
+        <v>-152.072</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>35695.210748</v>
+        <v>35695.210747999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.915336</v>
+        <v>9.9153359999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1211.370000</v>
+        <v>1211.3699999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.879000</v>
+        <v>-129.87899999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>35705.673885</v>
+        <v>35705.673884999997</v>
       </c>
       <c r="V25" s="1">
-        <v>9.918243</v>
+        <v>9.9182430000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.236000</v>
+        <v>-108.236</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>35715.902877</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.921084</v>
+        <v>9.9210840000000005</v>
       </c>
       <c r="AB25" s="1">
-        <v>1226.130000</v>
+        <v>1226.1300000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.934800</v>
+        <v>-90.934799999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>35726.339201</v>
+        <v>35726.339201000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.923983</v>
+        <v>9.9239829999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1230.620000</v>
+        <v>1230.6199999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.336900</v>
+        <v>-86.3369</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>35736.532948</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.926815</v>
+        <v>9.9268149999999995</v>
       </c>
       <c r="AL25" s="1">
-        <v>1237.570000</v>
+        <v>1237.57</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.882600</v>
+        <v>-89.882599999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>35747.883411</v>
+        <v>35747.883411000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.929968</v>
+        <v>9.9299680000000006</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.777000</v>
+        <v>-101.777</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>35759.021558</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.933062</v>
+        <v>9.9330619999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.291000</v>
+        <v>-121.291</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>35770.367545</v>
+        <v>35770.367545000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.936213</v>
+        <v>9.9362130000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1263.570000</v>
+        <v>1263.57</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.911000</v>
+        <v>-138.911</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>35781.459118</v>
+        <v>35781.459117999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.939294</v>
+        <v>9.9392940000000003</v>
       </c>
       <c r="BF25" s="1">
-        <v>1303.380000</v>
+        <v>1303.3800000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.955000</v>
+        <v>-221.95500000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>35792.355195</v>
+        <v>35792.355194999996</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.942321</v>
+        <v>9.9423209999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.870000</v>
+        <v>1372.87</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.833000</v>
+        <v>-360.83300000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>35803.746348</v>
+        <v>35803.746348000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.945485</v>
+        <v>9.9454849999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1487.570000</v>
+        <v>1487.57</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-587.580000</v>
+        <v>-587.58000000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>35814.426705</v>
+        <v>35814.426704999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.948452</v>
+        <v>9.9484519999999996</v>
       </c>
       <c r="BU25" s="1">
-        <v>1620.410000</v>
+        <v>1620.41</v>
       </c>
       <c r="BV25" s="1">
-        <v>-843.609000</v>
+        <v>-843.60900000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>35825.445827</v>
+        <v>35825.445827000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.951513</v>
+        <v>9.9515130000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1773.870000</v>
+        <v>1773.87</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1123.600000</v>
+        <v>-1123.5999999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>35838.701870</v>
+        <v>35838.701869999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.955195</v>
+        <v>9.9551949999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>2196.160000</v>
+        <v>2196.16</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1802.590000</v>
+        <v>-1802.59</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>35664.782179</v>
+        <v>35664.782179000002</v>
       </c>
       <c r="B26" s="1">
-        <v>9.906884</v>
+        <v>9.9068839999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1153.440000</v>
+        <v>1153.44</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.431000</v>
+        <v>-261.43099999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>35674.861878</v>
+        <v>35674.861878000003</v>
       </c>
       <c r="G26" s="1">
-        <v>9.909684</v>
+        <v>9.9096840000000004</v>
       </c>
       <c r="H26" s="1">
-        <v>1174.740000</v>
+        <v>1174.74</v>
       </c>
       <c r="I26" s="1">
-        <v>-219.620000</v>
+        <v>-219.62</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>35684.986124</v>
+        <v>35684.986124000003</v>
       </c>
       <c r="L26" s="1">
-        <v>9.912496</v>
+        <v>9.9124960000000009</v>
       </c>
       <c r="M26" s="1">
-        <v>1203.600000</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.941000</v>
+        <v>-151.941</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>35695.559931</v>
+        <v>35695.559931000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.915433</v>
+        <v>9.9154330000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1211.310000</v>
+        <v>1211.31</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.871000</v>
+        <v>-129.87100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>35706.017582</v>
       </c>
       <c r="V26" s="1">
-        <v>9.918338</v>
+        <v>9.9183380000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>1218.750000</v>
+        <v>1218.75</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.213000</v>
+        <v>-108.21299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>35716.253055</v>
+        <v>35716.253055000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.921181</v>
+        <v>9.9211810000000007</v>
       </c>
       <c r="AB26" s="1">
-        <v>1226.020000</v>
+        <v>1226.02</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.878400</v>
+        <v>-90.878399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>35726.686369</v>
+        <v>35726.686369000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.924080</v>
+        <v>9.92408</v>
       </c>
       <c r="AG26" s="1">
-        <v>1230.480000</v>
+        <v>1230.48</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.500400</v>
+        <v>-86.500399999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>35737.228373</v>
+        <v>35737.228372999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.927008</v>
+        <v>9.9270080000000007</v>
       </c>
       <c r="AL26" s="1">
-        <v>1237.580000</v>
+        <v>1237.58</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.881700</v>
+        <v>-89.881699999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>35748.258900</v>
+        <v>35748.258900000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.930072</v>
+        <v>9.9300719999999991</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.773000</v>
+        <v>-101.773</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>35759.413400</v>
+        <v>35759.413399999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.933170</v>
+        <v>9.9331700000000005</v>
       </c>
       <c r="AV26" s="1">
-        <v>1255.240000</v>
+        <v>1255.24</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.278000</v>
+        <v>-121.27800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>35770.725192</v>
+        <v>35770.725191999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.936313</v>
+        <v>9.9363130000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1263.610000</v>
+        <v>1263.6099999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.938000</v>
+        <v>-138.93799999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>35781.658474</v>
+        <v>35781.658474000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.939350</v>
+        <v>9.9393499999999992</v>
       </c>
       <c r="BF26" s="1">
-        <v>1303.370000</v>
+        <v>1303.3699999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.999000</v>
+        <v>-221.999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>35793.032266</v>
+        <v>35793.032266000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.942509</v>
+        <v>9.9425089999999994</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.890000</v>
+        <v>1372.89</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.839000</v>
+        <v>-360.839</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>35803.878288</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.945522</v>
+        <v>9.9455220000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1487.530000</v>
+        <v>1487.53</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-587.557000</v>
+        <v>-587.55700000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>35814.540253</v>
+        <v>35814.540252999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.948483</v>
+        <v>9.9484829999999995</v>
       </c>
       <c r="BU26" s="1">
-        <v>1620.540000</v>
+        <v>1620.54</v>
       </c>
       <c r="BV26" s="1">
-        <v>-843.681000</v>
+        <v>-843.68100000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>35825.887262</v>
+        <v>35825.887261999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.951635</v>
+        <v>9.9516349999999996</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1773.750000</v>
+        <v>1773.75</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1123.620000</v>
+        <v>-1123.6199999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>35839.240526</v>
+        <v>35839.240526000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.955345</v>
+        <v>9.9553449999999994</v>
       </c>
       <c r="CE26" s="1">
-        <v>2196.660000</v>
+        <v>2196.66</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1804.480000</v>
+        <v>-1804.48</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>